--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F4B34-8778-499C-A2CB-1253F06326A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AFCB8-1D31-4D6A-A424-8CB3CA346964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t>username</t>
   </si>
@@ -59,9 +59,6 @@
     <t>manoj.auto</t>
   </si>
   <si>
-    <t>Manoj@2024</t>
-  </si>
-  <si>
     <t>stock_name</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>stbat_supplier</t>
   </si>
   <si>
-    <t>Atharva Supplier</t>
-  </si>
-  <si>
     <t>stbat_batch_number</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>7.0000</t>
   </si>
   <si>
-    <t>Batch15</t>
-  </si>
-  <si>
     <t>stbat_serial_number</t>
   </si>
   <si>
@@ -293,13 +284,19 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>1</t>
+    <t>8</t>
   </si>
   <si>
     <t>Manoj@2025</t>
   </si>
   <si>
-    <t>Abusic17ml</t>
+    <t>Athrva Supplier</t>
+  </si>
+  <si>
+    <t>TestBatch</t>
+  </si>
+  <si>
+    <t>ZincoA05</t>
   </si>
 </sst>
 </file>
@@ -665,7 +662,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FB4A4672-53BF-4847-818A-1E666BA547AB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E3FDF08E-C2B9-40C6-B353-3CF919888D35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -712,7 +709,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,150 +765,150 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
       <c r="V1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -924,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,145 +946,145 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abusic17ml</v>
+        <v>ZincoA05</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="T2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1097,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,66 +1112,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1184,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,66 +1199,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1271,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,52 +1286,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1344,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,66 +1359,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1431,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,50 +1444,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,18 +1511,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
